--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Memphis_Grizzlies__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Memphis_Grizzlies__.xlsx
@@ -588,79 +588,79 @@
         <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>690</v>
+        <v>724</v>
       </c>
       <c r="G2" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H2" t="n">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="I2" t="n">
-        <v>0.474</v>
+        <v>0.468</v>
       </c>
       <c r="J2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4</v>
+        <v>0.399</v>
       </c>
       <c r="M2" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N2" t="n">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="O2" t="n">
-        <v>0.548</v>
+        <v>0.533</v>
       </c>
       <c r="P2" t="n">
-        <v>0.574</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S2" t="n">
-        <v>0.906</v>
+        <v>0.914</v>
       </c>
       <c r="T2" t="n">
         <v>14</v>
       </c>
       <c r="U2" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V2" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="W2" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AB2" t="n">
-        <v>387</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3">
@@ -676,79 +676,79 @@
         <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>647</v>
+        <v>681</v>
       </c>
       <c r="G3" t="n">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H3" t="n">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="I3" t="n">
-        <v>0.423</v>
+        <v>0.426</v>
       </c>
       <c r="J3" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K3" t="n">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L3" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N3" t="n">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="O3" t="n">
-        <v>0.475</v>
+        <v>0.483</v>
       </c>
       <c r="P3" t="n">
-        <v>0.511</v>
+        <v>0.512</v>
       </c>
       <c r="Q3" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="R3" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="S3" t="n">
-        <v>0.842</v>
+        <v>0.833</v>
       </c>
       <c r="T3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U3" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="V3" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="W3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AA3" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="n">
-        <v>378</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4">
@@ -757,86 +757,84 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>Steven Adams</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>622</v>
+      </c>
+      <c r="G4" t="n">
+        <v>65</v>
+      </c>
+      <c r="H4" t="n">
+        <v>124</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>65</v>
+      </c>
+      <c r="N4" t="n">
+        <v>124</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>48</v>
+      </c>
+      <c r="R4" t="n">
+        <v>76</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="T4" t="n">
+        <v>94</v>
+      </c>
+      <c r="U4" t="n">
+        <v>120</v>
+      </c>
+      <c r="V4" t="n">
+        <v>214</v>
+      </c>
+      <c r="W4" t="n">
+        <v>68</v>
+      </c>
+      <c r="X4" t="n">
         <v>22</v>
       </c>
-      <c r="D4" t="n">
-        <v>19</v>
-      </c>
-      <c r="E4" t="n">
-        <v>19</v>
-      </c>
-      <c r="F4" t="n">
-        <v>619</v>
-      </c>
-      <c r="G4" t="n">
-        <v>170</v>
-      </c>
-      <c r="H4" t="n">
-        <v>357</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="J4" t="n">
-        <v>31</v>
-      </c>
-      <c r="K4" t="n">
-        <v>87</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.356</v>
-      </c>
-      <c r="M4" t="n">
-        <v>139</v>
-      </c>
-      <c r="N4" t="n">
-        <v>270</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.515</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>87</v>
-      </c>
-      <c r="R4" t="n">
-        <v>112</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="T4" t="n">
-        <v>25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>81</v>
-      </c>
-      <c r="V4" t="n">
-        <v>106</v>
-      </c>
-      <c r="W4" t="n">
-        <v>129</v>
-      </c>
-      <c r="X4" t="n">
-        <v>30</v>
-      </c>
       <c r="Y4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AA4" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AB4" t="n">
-        <v>458</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5">
@@ -845,84 +843,86 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>592</v>
+        <v>619</v>
       </c>
       <c r="G5" t="n">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="H5" t="n">
-        <v>120</v>
+        <v>357</v>
       </c>
       <c r="I5" t="n">
-        <v>0.525</v>
+        <v>0.476</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.356</v>
+      </c>
       <c r="M5" t="n">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="N5" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="O5" t="n">
-        <v>0.525</v>
+        <v>0.515</v>
       </c>
       <c r="P5" t="n">
-        <v>0.525</v>
+        <v>0.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="R5" t="n">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="S5" t="n">
-        <v>0.657</v>
+        <v>0.777</v>
       </c>
       <c r="T5" t="n">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="U5" t="n">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="V5" t="n">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="W5" t="n">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y5" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Z5" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AA5" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AB5" t="n">
-        <v>172</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6">
@@ -938,40 +938,40 @@
         <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="G6" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H6" t="n">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="I6" t="n">
-        <v>0.408</v>
+        <v>0.407</v>
       </c>
       <c r="J6" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K6" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L6" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="M6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N6" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O6" t="n">
-        <v>0.458</v>
+        <v>0.46</v>
       </c>
       <c r="P6" t="n">
         <v>0.502</v>
@@ -986,19 +986,19 @@
         <v>0.65</v>
       </c>
       <c r="T6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U6" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="V6" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="W6" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="X6" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y6" t="n">
         <v>14</v>
@@ -1007,10 +1007,10 @@
         <v>36</v>
       </c>
       <c r="AA6" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="n">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7">
@@ -1019,86 +1019,86 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
+        <v>25</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>478</v>
+      </c>
+      <c r="G7" t="n">
+        <v>65</v>
+      </c>
+      <c r="H7" t="n">
+        <v>141</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="J7" t="n">
+        <v>22</v>
+      </c>
+      <c r="K7" t="n">
+        <v>54</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="M7" t="n">
+        <v>43</v>
+      </c>
+      <c r="N7" t="n">
+        <v>87</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>20</v>
+      </c>
+      <c r="R7" t="n">
+        <v>22</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>58</v>
+      </c>
+      <c r="V7" t="n">
+        <v>63</v>
+      </c>
+      <c r="W7" t="n">
+        <v>103</v>
+      </c>
+      <c r="X7" t="n">
         <v>21</v>
       </c>
-      <c r="E7" t="n">
+      <c r="Y7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" t="n">
-        <v>455</v>
-      </c>
-      <c r="G7" t="n">
-        <v>66</v>
-      </c>
-      <c r="H7" t="n">
-        <v>154</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="Z7" t="n">
         <v>18</v>
       </c>
-      <c r="K7" t="n">
-        <v>50</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="M7" t="n">
-        <v>48</v>
-      </c>
-      <c r="N7" t="n">
-        <v>104</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>15</v>
-      </c>
-      <c r="R7" t="n">
-        <v>19</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.789</v>
-      </c>
-      <c r="T7" t="n">
-        <v>23</v>
-      </c>
-      <c r="U7" t="n">
-        <v>87</v>
-      </c>
-      <c r="V7" t="n">
-        <v>110</v>
-      </c>
-      <c r="W7" t="n">
-        <v>50</v>
-      </c>
-      <c r="X7" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>20</v>
-      </c>
       <c r="AA7" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8">
@@ -1107,86 +1107,86 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="G8" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H8" t="n">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="I8" t="n">
-        <v>0.47</v>
+        <v>0.429</v>
       </c>
       <c r="J8" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K8" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" t="n">
-        <v>0.431</v>
+        <v>0.36</v>
       </c>
       <c r="M8" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N8" t="n">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="O8" t="n">
-        <v>0.494</v>
+        <v>0.462</v>
       </c>
       <c r="P8" t="n">
-        <v>0.552</v>
+        <v>0.487</v>
       </c>
       <c r="Q8" t="n">
+        <v>15</v>
+      </c>
+      <c r="R8" t="n">
         <v>19</v>
       </c>
-      <c r="R8" t="n">
-        <v>21</v>
-      </c>
       <c r="S8" t="n">
-        <v>0.905</v>
+        <v>0.789</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="U8" t="n">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="V8" t="n">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="W8" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AB8" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9">
@@ -1195,86 +1195,86 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ziaire Williams</t>
+          <t>John Konchar</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="G9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="I9" t="n">
-        <v>0.354</v>
+        <v>0.544</v>
       </c>
       <c r="J9" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K9" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="L9" t="n">
-        <v>0.246</v>
+        <v>0.423</v>
       </c>
       <c r="M9" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N9" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.619</v>
       </c>
       <c r="P9" t="n">
-        <v>0.434</v>
+        <v>0.625</v>
       </c>
       <c r="Q9" t="n">
         <v>4</v>
       </c>
       <c r="R9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S9" t="n">
-        <v>0.667</v>
+        <v>0.4</v>
       </c>
       <c r="T9" t="n">
+        <v>21</v>
+      </c>
+      <c r="U9" t="n">
+        <v>61</v>
+      </c>
+      <c r="V9" t="n">
+        <v>82</v>
+      </c>
+      <c r="W9" t="n">
+        <v>30</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
         <v>5</v>
       </c>
-      <c r="U9" t="n">
-        <v>23</v>
-      </c>
-      <c r="V9" t="n">
-        <v>28</v>
-      </c>
-      <c r="W9" t="n">
-        <v>12</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>6</v>
-      </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -1283,14 +1283,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>John Konchar</t>
+          <t>Ziaire Williams</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1299,70 +1299,70 @@
         <v>339</v>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="I10" t="n">
-        <v>0.545</v>
+        <v>0.354</v>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K10" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4</v>
+        <v>0.246</v>
       </c>
       <c r="M10" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="O10" t="n">
-        <v>0.634</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="P10" t="n">
-        <v>0.621</v>
+        <v>0.434</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
+        <v>6</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>23</v>
+      </c>
+      <c r="V10" t="n">
+        <v>28</v>
+      </c>
+      <c r="W10" t="n">
+        <v>12</v>
+      </c>
+      <c r="X10" t="n">
         <v>8</v>
       </c>
-      <c r="S10" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="T10" t="n">
-        <v>21</v>
-      </c>
-      <c r="U10" t="n">
-        <v>61</v>
-      </c>
-      <c r="V10" t="n">
-        <v>82</v>
-      </c>
-      <c r="W10" t="n">
-        <v>29</v>
-      </c>
-      <c r="X10" t="n">
-        <v>16</v>
-      </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AB10" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -1371,86 +1371,86 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Brandon Clarke</t>
+          <t>Dillon Brooks</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="G11" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H11" t="n">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="I11" t="n">
-        <v>0.61</v>
+        <v>0.407</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K11" t="n">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="L11" t="n">
-        <v>0.091</v>
+        <v>0.31</v>
       </c>
       <c r="M11" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N11" t="n">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="O11" t="n">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="P11" t="n">
-        <v>0.614</v>
+        <v>0.455</v>
       </c>
       <c r="Q11" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="R11" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S11" t="n">
-        <v>0.667</v>
+        <v>0.917</v>
       </c>
       <c r="T11" t="n">
+        <v>8</v>
+      </c>
+      <c r="U11" t="n">
+        <v>32</v>
+      </c>
+      <c r="V11" t="n">
+        <v>40</v>
+      </c>
+      <c r="W11" t="n">
         <v>33</v>
       </c>
-      <c r="U11" t="n">
-        <v>50</v>
-      </c>
-      <c r="V11" t="n">
-        <v>83</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z11" t="n">
         <v>26</v>
       </c>
-      <c r="X11" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>8</v>
-      </c>
       <c r="AA11" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="AB11" t="n">
-        <v>147</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12">
@@ -1459,86 +1459,86 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dillon Brooks</t>
+          <t>Brandon Clarke</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>304</v>
+      </c>
+      <c r="G12" t="n">
+        <v>64</v>
+      </c>
+      <c r="H12" t="n">
+        <v>105</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="M12" t="n">
+        <v>63</v>
+      </c>
+      <c r="N12" t="n">
+        <v>94</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>18</v>
+      </c>
+      <c r="R12" t="n">
+        <v>27</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="T12" t="n">
+        <v>33</v>
+      </c>
+      <c r="U12" t="n">
+        <v>50</v>
+      </c>
+      <c r="V12" t="n">
+        <v>83</v>
+      </c>
+      <c r="W12" t="n">
         <v>26</v>
       </c>
-      <c r="D12" t="n">
-        <v>11</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" t="n">
-        <v>287</v>
-      </c>
-      <c r="G12" t="n">
-        <v>70</v>
-      </c>
-      <c r="H12" t="n">
-        <v>171</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="J12" t="n">
-        <v>18</v>
-      </c>
-      <c r="K12" t="n">
-        <v>55</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.327</v>
-      </c>
-      <c r="M12" t="n">
-        <v>52</v>
-      </c>
-      <c r="N12" t="n">
-        <v>116</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>32</v>
-      </c>
-      <c r="R12" t="n">
-        <v>35</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="T12" t="n">
+      <c r="X12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z12" t="n">
         <v>8</v>
       </c>
-      <c r="U12" t="n">
-        <v>28</v>
-      </c>
-      <c r="V12" t="n">
-        <v>36</v>
-      </c>
-      <c r="W12" t="n">
-        <v>31</v>
-      </c>
-      <c r="X12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>26</v>
-      </c>
       <c r="AA12" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AB12" t="n">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
@@ -1554,64 +1554,64 @@
         <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="G13" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H13" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I13" t="n">
-        <v>0.431</v>
+        <v>0.429</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
       </c>
       <c r="K13" t="n">
+        <v>22</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="M13" t="n">
+        <v>29</v>
+      </c>
+      <c r="N13" t="n">
+        <v>55</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>14</v>
+      </c>
+      <c r="R13" t="n">
         <v>21</v>
       </c>
-      <c r="L13" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="M13" t="n">
-        <v>27</v>
-      </c>
-      <c r="N13" t="n">
-        <v>51</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.529</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>13</v>
-      </c>
-      <c r="R13" t="n">
-        <v>17</v>
-      </c>
       <c r="S13" t="n">
-        <v>0.765</v>
+        <v>0.667</v>
       </c>
       <c r="T13" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U13" t="n">
         <v>33</v>
       </c>
       <c r="V13" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X13" t="n">
         <v>19</v>
@@ -1620,13 +1620,13 @@
         <v>7</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB13" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -1642,43 +1642,43 @@
         <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I14" t="n">
-        <v>0.356</v>
+        <v>0.349</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L14" t="n">
-        <v>0.115</v>
+        <v>0.111</v>
       </c>
       <c r="M14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N14" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O14" t="n">
-        <v>0.545</v>
+        <v>0.528</v>
       </c>
       <c r="P14" t="n">
-        <v>0.381</v>
+        <v>0.373</v>
       </c>
       <c r="Q14" t="n">
         <v>6</v>
@@ -1690,13 +1690,13 @@
         <v>0.6</v>
       </c>
       <c r="T14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="V14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W14" t="n">
         <v>12</v>
@@ -1711,10 +1711,10 @@
         <v>4</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB14" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -1730,31 +1730,31 @@
         <v>23</v>
       </c>
       <c r="D15" t="n">
+        <v>11</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>96</v>
+      </c>
+      <c r="G15" t="n">
         <v>10</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>77</v>
-      </c>
-      <c r="G15" t="n">
-        <v>8</v>
-      </c>
       <c r="H15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I15" t="n">
-        <v>0.348</v>
+        <v>0.385</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L15" t="n">
-        <v>0.308</v>
+        <v>0.375</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
@@ -1766,7 +1766,7 @@
         <v>0.4</v>
       </c>
       <c r="P15" t="n">
-        <v>0.435</v>
+        <v>0.5</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1781,28 +1781,28 @@
         <v>5</v>
       </c>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W15" t="n">
         <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z15" t="n">
         <v>3</v>
       </c>
       <c r="AA15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -2070,77 +2070,77 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>5810</v>
+        <v>6050</v>
       </c>
       <c r="G19" t="n">
-        <v>1009</v>
+        <v>1045</v>
       </c>
       <c r="H19" t="n">
-        <v>2231</v>
+        <v>2321</v>
       </c>
       <c r="I19" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="J19" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="K19" t="n">
-        <v>843</v>
+        <v>874</v>
       </c>
       <c r="L19" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="M19" t="n">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="N19" t="n">
-        <v>1388</v>
+        <v>1447</v>
       </c>
       <c r="O19" t="n">
-        <v>0.517</v>
+        <v>0.515</v>
       </c>
       <c r="P19" t="n">
-        <v>0.517</v>
+        <v>0.515</v>
       </c>
       <c r="Q19" t="n">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="R19" t="n">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="S19" t="n">
-        <v>0.762</v>
+        <v>0.754</v>
       </c>
       <c r="T19" t="n">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="U19" t="n">
-        <v>836</v>
+        <v>864</v>
       </c>
       <c r="V19" t="n">
-        <v>1148</v>
+        <v>1188</v>
       </c>
       <c r="W19" t="n">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="X19" t="n">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="Y19" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Z19" t="n">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="AA19" t="n">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="AB19" t="n">
-        <v>2665</v>
+        <v>2761</v>
       </c>
     </row>
   </sheetData>
